--- a/Tables/средние значения.xlsx
+++ b/Tables/средние значения.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,16 @@
           <t>безработица</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>браки</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>разводы на 1 брак</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -470,6 +480,12 @@
       <c r="D2" t="n">
         <v>0.7696428571428569</v>
       </c>
+      <c r="E2" t="n">
+        <v>0.7696428571428569</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.7515964214070421</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -486,6 +502,12 @@
       <c r="D3" t="n">
         <v>1.106632653061224</v>
       </c>
+      <c r="E3" t="n">
+        <v>1.106632653061224</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.8312082361544811</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -502,6 +524,12 @@
       <c r="D4" t="n">
         <v>1.147448979591836</v>
       </c>
+      <c r="E4" t="n">
+        <v>1.147448979591836</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.7402993022810146</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -518,6 +546,12 @@
       <c r="D5" t="n">
         <v>0.978316326530613</v>
       </c>
+      <c r="E5" t="n">
+        <v>0.978316326530613</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.705597277303375</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -534,6 +568,12 @@
       <c r="D6" t="n">
         <v>1.051785714285714</v>
       </c>
+      <c r="E6" t="n">
+        <v>1.051785714285714</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.7386030978685484</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -550,6 +590,12 @@
       <c r="D7" t="n">
         <v>0.593877551020408</v>
       </c>
+      <c r="E7" t="n">
+        <v>0.593877551020408</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.7270660795559046</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -566,6 +612,12 @@
       <c r="D8" t="n">
         <v>0.7209183673469386</v>
       </c>
+      <c r="E8" t="n">
+        <v>0.7209183673469386</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.7632750643164737</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -582,6 +634,12 @@
       <c r="D9" t="n">
         <v>0.984183673469388</v>
       </c>
+      <c r="E9" t="n">
+        <v>0.984183673469388</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.7633777530874619</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -598,6 +656,12 @@
       <c r="D10" t="n">
         <v>0.5418367346938774</v>
       </c>
+      <c r="E10" t="n">
+        <v>0.5418367346938774</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.7342244811892064</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -614,6 +678,12 @@
       <c r="D11" t="n">
         <v>0.6155612244897958</v>
       </c>
+      <c r="E11" t="n">
+        <v>0.6155612244897958</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.680839061715814</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -630,6 +700,12 @@
       <c r="D12" t="n">
         <v>1.051530612244899</v>
       </c>
+      <c r="E12" t="n">
+        <v>1.051530612244899</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.7852971948312512</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -646,6 +722,12 @@
       <c r="D13" t="n">
         <v>0.8397959183673468</v>
       </c>
+      <c r="E13" t="n">
+        <v>0.8397959183673468</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.7501175171643881</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -662,6 +744,12 @@
       <c r="D14" t="n">
         <v>1.251785714285714</v>
       </c>
+      <c r="E14" t="n">
+        <v>1.251785714285714</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.8284326477189152</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -678,6 +766,12 @@
       <c r="D15" t="n">
         <v>0.8272959183673468</v>
       </c>
+      <c r="E15" t="n">
+        <v>0.8272959183673468</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.7787110152456017</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -694,6 +788,12 @@
       <c r="D16" t="n">
         <v>0.9673469387755107</v>
       </c>
+      <c r="E16" t="n">
+        <v>0.9673469387755107</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.749212595867721</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -710,6 +810,12 @@
       <c r="D17" t="n">
         <v>0.70484693877551</v>
       </c>
+      <c r="E17" t="n">
+        <v>0.70484693877551</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.7382370013079329</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -726,6 +832,12 @@
       <c r="D18" t="n">
         <v>1.396428571428571</v>
       </c>
+      <c r="E18" t="n">
+        <v>1.396428571428571</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.7428430999531115</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -742,6 +854,12 @@
       <c r="D19" t="n">
         <v>0.4693877551020411</v>
       </c>
+      <c r="E19" t="n">
+        <v>0.4693877551020411</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.5681833887382403</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -758,6 +876,12 @@
       <c r="D20" t="n">
         <v>2.069642857142857</v>
       </c>
+      <c r="E20" t="n">
+        <v>2.069642857142857</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.7318351054068316</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -774,6 +898,12 @@
       <c r="D21" t="n">
         <v>1.596938775510205</v>
       </c>
+      <c r="E21" t="n">
+        <v>1.596938775510205</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.8124787284697311</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -790,6 +920,12 @@
       <c r="D22" t="n">
         <v>1.655357142857143</v>
       </c>
+      <c r="E22" t="n">
+        <v>1.655357142857143</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.7505688595472016</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -806,6 +942,12 @@
       <c r="D23" t="n">
         <v>1.63265306122449</v>
       </c>
+      <c r="E23" t="n">
+        <v>1.63265306122449</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.7461076390695629</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -822,6 +964,12 @@
       <c r="D24" t="n">
         <v>1.374234693877551</v>
       </c>
+      <c r="E24" t="n">
+        <v>1.374234693877551</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.7143907970108387</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -838,6 +986,12 @@
       <c r="D25" t="n">
         <v>1.024234693877551</v>
       </c>
+      <c r="E25" t="n">
+        <v>1.024234693877551</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.7929551576808475</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -854,6 +1008,12 @@
       <c r="D26" t="n">
         <v>0.3992346938775512</v>
       </c>
+      <c r="E26" t="n">
+        <v>0.3992346938775512</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9381301039368221</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -870,6 +1030,12 @@
       <c r="D27" t="n">
         <v>1.564285714285715</v>
       </c>
+      <c r="E27" t="n">
+        <v>1.564285714285715</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.7413759880462413</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -886,6 +1052,12 @@
       <c r="D28" t="n">
         <v>1.055102040816327</v>
       </c>
+      <c r="E28" t="n">
+        <v>1.055102040816327</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.7488177688388451</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -902,6 +1074,12 @@
       <c r="D29" t="n">
         <v>1.205357142857143</v>
       </c>
+      <c r="E29" t="n">
+        <v>1.205357142857143</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.7686988900772542</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -918,6 +1096,12 @@
       <c r="D30" t="n">
         <v>0.3931122448979594</v>
       </c>
+      <c r="E30" t="n">
+        <v>0.3931122448979594</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.5759082122854262</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -934,6 +1118,12 @@
       <c r="D31" t="n">
         <v>1.190561224489795</v>
       </c>
+      <c r="E31" t="n">
+        <v>1.190561224489795</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.7894517196346125</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -950,6 +1140,12 @@
       <c r="D32" t="n">
         <v>1.842346938775509</v>
       </c>
+      <c r="E32" t="n">
+        <v>1.842346938775509</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.8412741365243429</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -966,6 +1162,12 @@
       <c r="D33" t="n">
         <v>0.6066326530612245</v>
       </c>
+      <c r="E33" t="n">
+        <v>0.6066326530612245</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.7271091962965446</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -982,6 +1184,12 @@
       <c r="D34" t="n">
         <v>1.115561224489796</v>
       </c>
+      <c r="E34" t="n">
+        <v>1.115561224489796</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.7474156283909508</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -998,6 +1206,12 @@
       <c r="D35" t="n">
         <v>0.9497448979591837</v>
       </c>
+      <c r="E35" t="n">
+        <v>0.9497448979591837</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.7879515052340876</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1014,6 +1228,12 @@
       <c r="D36" t="n">
         <v>0.8553571428571425</v>
       </c>
+      <c r="E36" t="n">
+        <v>0.8553571428571425</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.7551279940804383</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1030,6 +1250,12 @@
       <c r="D37" t="n">
         <v>1.977551020408162</v>
       </c>
+      <c r="E37" t="n">
+        <v>1.977551020408162</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.2988985464189259</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1046,6 +1272,12 @@
       <c r="D38" t="n">
         <v>11.66632653061224</v>
       </c>
+      <c r="E38" t="n">
+        <v>11.66632653061224</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.2154298652321159</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1062,6 +1294,12 @@
       <c r="D39" t="n">
         <v>1.933418367346938</v>
       </c>
+      <c r="E39" t="n">
+        <v>1.933418367346938</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.5463864279344176</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1078,6 +1316,12 @@
       <c r="D40" t="n">
         <v>1.753316373698508</v>
       </c>
+      <c r="E40" t="n">
+        <v>1.753316373698508</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.6601708867817077</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1094,6 +1338,12 @@
       <c r="D41" t="n">
         <v>2.510459183673468</v>
       </c>
+      <c r="E41" t="n">
+        <v>2.510459183673468</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.5490391729410924</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1110,6 +1360,12 @@
       <c r="D42" t="n">
         <v>10.81147959183674</v>
       </c>
+      <c r="E42" t="n">
+        <v>10.81147959183674</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.1456032381313011</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1126,6 +1382,12 @@
       <c r="D43" t="n">
         <v>0.9446428571428576</v>
       </c>
+      <c r="E43" t="n">
+        <v>0.9446428571428576</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.7488261455967332</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1142,6 +1404,12 @@
       <c r="D44" t="n">
         <v>1.146938775510204</v>
       </c>
+      <c r="E44" t="n">
+        <v>1.146938775510204</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.6687254432247851</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1158,6 +1426,12 @@
       <c r="D45" t="n">
         <v>1.009693877551021</v>
       </c>
+      <c r="E45" t="n">
+        <v>1.009693877551021</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.7318021272844585</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1174,6 +1448,12 @@
       <c r="D46" t="n">
         <v>0.8232142857142856</v>
       </c>
+      <c r="E46" t="n">
+        <v>0.8232142857142856</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.6769329150708008</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1190,6 +1470,12 @@
       <c r="D47" t="n">
         <v>0.6905612244897957</v>
       </c>
+      <c r="E47" t="n">
+        <v>0.6905612244897957</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.6082161603542229</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1206,6 +1492,12 @@
       <c r="D48" t="n">
         <v>0.9849489795918371</v>
       </c>
+      <c r="E48" t="n">
+        <v>0.9849489795918371</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.656076260220757</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1222,6 +1514,12 @@
       <c r="D49" t="n">
         <v>0.7119897959183671</v>
       </c>
+      <c r="E49" t="n">
+        <v>0.7119897959183671</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.6591347421338394</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1238,6 +1536,12 @@
       <c r="D50" t="n">
         <v>1.456377551020408</v>
       </c>
+      <c r="E50" t="n">
+        <v>1.456377551020408</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.6625348468990645</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1254,6 +1558,12 @@
       <c r="D51" t="n">
         <v>1.307397959183673</v>
       </c>
+      <c r="E51" t="n">
+        <v>1.307397959183673</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.8117656357190726</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1270,6 +1580,12 @@
       <c r="D52" t="n">
         <v>0.4918367346938779</v>
       </c>
+      <c r="E52" t="n">
+        <v>0.4918367346938779</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.7073237262756719</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1286,6 +1602,12 @@
       <c r="D53" t="n">
         <v>1.42704081632653</v>
       </c>
+      <c r="E53" t="n">
+        <v>1.42704081632653</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.7299320102891631</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1302,6 +1624,12 @@
       <c r="D54" t="n">
         <v>0.8214285714285716</v>
       </c>
+      <c r="E54" t="n">
+        <v>0.8214285714285716</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.7471690699762921</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1318,6 +1646,12 @@
       <c r="D55" t="n">
         <v>1.090051020408163</v>
       </c>
+      <c r="E55" t="n">
+        <v>1.090051020408163</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.7532530538431782</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1334,6 +1668,12 @@
       <c r="D56" t="n">
         <v>0.994132653061225</v>
       </c>
+      <c r="E56" t="n">
+        <v>0.994132653061225</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.7922308025873523</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1350,6 +1690,12 @@
       <c r="D57" t="n">
         <v>0.5168367346938778</v>
       </c>
+      <c r="E57" t="n">
+        <v>0.5168367346938778</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.6768015355578958</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1366,6 +1712,12 @@
       <c r="D58" t="n">
         <v>1.721683673469387</v>
       </c>
+      <c r="E58" t="n">
+        <v>1.721683673469387</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.8153923922088837</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1382,6 +1734,12 @@
       <c r="D59" t="n">
         <v>1.31454081632653</v>
       </c>
+      <c r="E59" t="n">
+        <v>1.31454081632653</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.6966041499892902</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1398,6 +1756,12 @@
       <c r="D60" t="n">
         <v>0.5895408163265305</v>
       </c>
+      <c r="E60" t="n">
+        <v>0.5895408163265305</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.7372287856079407</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1414,6 +1778,12 @@
       <c r="D61" t="n">
         <v>0.7181122448979589</v>
       </c>
+      <c r="E61" t="n">
+        <v>0.7181122448979589</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.7612655127705</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1430,6 +1800,12 @@
       <c r="D62" t="n">
         <v>0.6538265306122446</v>
       </c>
+      <c r="E62" t="n">
+        <v>0.6538265306122446</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.7106198102058491</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1446,6 +1822,12 @@
       <c r="D63" t="n">
         <v>1.553571428571429</v>
       </c>
+      <c r="E63" t="n">
+        <v>1.553571428571429</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.7603063771316778</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1462,6 +1844,12 @@
       <c r="D64" t="n">
         <v>2.711989795918368</v>
       </c>
+      <c r="E64" t="n">
+        <v>2.711989795918368</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.702221775118567</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1478,6 +1866,12 @@
       <c r="D65" t="n">
         <v>1.33469387755102</v>
       </c>
+      <c r="E65" t="n">
+        <v>1.33469387755102</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.6467365796394688</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1494,6 +1888,12 @@
       <c r="D66" t="n">
         <v>4.230102040816327</v>
       </c>
+      <c r="E66" t="n">
+        <v>4.230102040816327</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.3227158992780609</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1510,6 +1910,12 @@
       <c r="D67" t="n">
         <v>1.826020408163265</v>
       </c>
+      <c r="E67" t="n">
+        <v>1.826020408163265</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.7343584758850871</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1526,6 +1932,12 @@
       <c r="D68" t="n">
         <v>1.639795918367347</v>
       </c>
+      <c r="E68" t="n">
+        <v>1.639795918367347</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.8211365774151753</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1542,6 +1954,12 @@
       <c r="D69" t="n">
         <v>1.852295918367346</v>
       </c>
+      <c r="E69" t="n">
+        <v>1.852295918367346</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.698346704341518</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1558,6 +1976,12 @@
       <c r="D70" t="n">
         <v>1.14438775510204</v>
       </c>
+      <c r="E70" t="n">
+        <v>1.14438775510204</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.7086998532933313</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1574,6 +1998,12 @@
       <c r="D71" t="n">
         <v>1.215561224489795</v>
       </c>
+      <c r="E71" t="n">
+        <v>1.215561224489795</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.6959491361771173</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1590,6 +2020,12 @@
       <c r="D72" t="n">
         <v>2.165561224489796</v>
       </c>
+      <c r="E72" t="n">
+        <v>2.165561224489796</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.7978926429173105</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1606,6 +2042,12 @@
       <c r="D73" t="n">
         <v>1.050255102040817</v>
       </c>
+      <c r="E73" t="n">
+        <v>1.050255102040817</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.7420904650567262</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1622,6 +2064,12 @@
       <c r="D74" t="n">
         <v>1.190561224489795</v>
       </c>
+      <c r="E74" t="n">
+        <v>1.190561224489795</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.7029315506498165</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1638,6 +2086,12 @@
       <c r="D75" t="n">
         <v>1.561989795918368</v>
       </c>
+      <c r="E75" t="n">
+        <v>1.561989795918368</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.7117273585392386</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1654,6 +2108,12 @@
       <c r="D76" t="n">
         <v>1.994132653061225</v>
       </c>
+      <c r="E76" t="n">
+        <v>1.994132653061225</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.6766030705439163</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1670,6 +2130,12 @@
       <c r="D77" t="n">
         <v>1.49030612244898</v>
       </c>
+      <c r="E77" t="n">
+        <v>1.49030612244898</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.7569581691680635</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1686,6 +2152,12 @@
       <c r="D78" t="n">
         <v>1.282142857142857</v>
       </c>
+      <c r="E78" t="n">
+        <v>1.282142857142857</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.7240888544968963</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1702,6 +2174,12 @@
       <c r="D79" t="n">
         <v>1.060459183673469</v>
       </c>
+      <c r="E79" t="n">
+        <v>1.060459183673469</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.7639274554288839</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1718,6 +2196,12 @@
       <c r="D80" t="n">
         <v>2.773469387755102</v>
       </c>
+      <c r="E80" t="n">
+        <v>2.773469387755102</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.7719477067465655</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1734,6 +2218,12 @@
       <c r="D81" t="n">
         <v>1.546938775510204</v>
       </c>
+      <c r="E81" t="n">
+        <v>1.546938775510204</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.8559472120369678</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1750,6 +2240,12 @@
       <c r="D82" t="n">
         <v>0.6451530612244895</v>
       </c>
+      <c r="E82" t="n">
+        <v>0.6451530612244895</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.8038694097150034</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1766,6 +2262,12 @@
       <c r="D83" t="n">
         <v>1.197704081632652</v>
       </c>
+      <c r="E83" t="n">
+        <v>1.197704081632652</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.7494564420658749</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1781,6 +2283,12 @@
       </c>
       <c r="D84" t="n">
         <v>2.195663265306123</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2.195663265306123</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.7798396115570861</v>
       </c>
     </row>
   </sheetData>
